--- a/data/us/20-05-06 world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-05-06 world o meter adjusted covid cases by state.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{4C1402C6-8BFD-44D0-9F6C-EEAF3E2DE560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA10C123-C67F-4651-A53D-360DEEB8509D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{4C1402C6-8BFD-44D0-9F6C-EEAF3E2DE560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9EE5198E-1169-4B51-BFEE-A583E8009C3B}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="370" windowWidth="22490" windowHeight="16670" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="13770" yWindow="-18165" windowWidth="25875" windowHeight="16485" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -745,14 +745,14 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1133,22 +1133,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P1" s="6"/>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
@@ -1163,7 +1163,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="62"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="28"/>
       <c r="N2" s="27" t="s">
         <v>62</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="40"/>
-      <c r="L59" s="61"/>
+      <c r="L59" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4946,11 +4946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B5581-99F4-4752-AB5D-E061591DB7E6}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D56"/>
+      <selection pane="bottomRight" sqref="A1:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7744,7 +7744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
